--- a/data/trans_dic/P78D$ninguna_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P78D$ninguna_2023-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,61; 95,13</t>
+          <t>90,34; 95,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,79; 95,74</t>
+          <t>91,4; 95,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,75; 94,86</t>
+          <t>91,8; 95,02</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,47; 92,99</t>
+          <t>87,8; 93,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,34; 90,52</t>
+          <t>84,53; 90,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,35; 91,28</t>
+          <t>87,36; 91,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,32; 96,24</t>
+          <t>82,53; 96,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,27; 92,41</t>
+          <t>84,28; 92,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,21; 95,49</t>
+          <t>84,25; 96,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,56; 86,62</t>
+          <t>81,61; 86,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,91; 96,14</t>
+          <t>89,0; 95,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,89; 91,44</t>
+          <t>85,76; 91,44</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,19; 84,47</t>
+          <t>77,26; 85,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,76; 84,37</t>
+          <t>78,85; 84,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,13; 83,78</t>
+          <t>79,18; 83,78</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,36; 97,12</t>
+          <t>84,18; 97,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,88; 84,41</t>
+          <t>78,61; 84,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,65; 86,98</t>
+          <t>81,77; 86,87</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,08; 90,26</t>
+          <t>85,96; 90,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,99; 89,7</t>
+          <t>85,77; 89,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,18; 89,18</t>
+          <t>86,38; 89,24</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no ha tenido retrasos en pagos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>466612</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>413214</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>879827</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>452112; 476804</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>402383; 420603</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>863634; 893858</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>403836</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>332729</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>736566</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>391558; 415136</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>320063; 342487</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>720374; 753721</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>588768</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>146702</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>735469</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>542708; 632976</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>139006; 152583</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>692924; 790353</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>855514</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>871705</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1727219</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>827997; 882536</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>844293; 910420</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1683571; 1795166</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>368835</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>605303</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>974139</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>350424; 386006</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>585593; 628703</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>947168; 1002189</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>198376</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>588073</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>786448</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>180332; 208454</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>564383; 604807</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>762218; 809724</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2782</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7197</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2881941</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2957728</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5839669</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2825113; 2971514</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2910277; 3039885</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5769445; 5961050</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>